--- a/RiskRegister_Week2.xlsx
+++ b/RiskRegister_Week2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zane\Documents\SP23\RTOS\FinalProject\Week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C508372E-4835-40DF-ADD6-F4A89B94C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6FED00-EDC2-4BC6-96FC-BFF1B0A4B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Item</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Test Ball doesn't have constant energy</t>
+  </si>
+  <si>
+    <t>Physics and display tasks timers aren't fast enough</t>
   </si>
 </sst>
 </file>
@@ -286,10 +289,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -316,16 +319,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -352,6 +358,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,8 +1284,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:H10" totalsRowShown="0" headerRowBorderDxfId="6">
-  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:H11" totalsRowShown="0" headerRowBorderDxfId="6">
+  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
     <sortCondition descending="1" ref="D1:D10"/>
   </sortState>
@@ -1569,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1817,6 +1826,25 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11*C11</f>
+        <v>1600</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45022</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J10">
     <sortCondition descending="1" ref="D4:D10"/>
@@ -1834,7 +1862,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:C10</xm:sqref>
+          <xm:sqref>B2:C11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
